--- a/2022_regular_season_scorecards.xlsx
+++ b/2022_regular_season_scorecards.xlsx
@@ -1,32 +1,461 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knari\Documents\ORSCA Website\orsca-web-scrapers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58702111-242D-419C-AADC-DBAEF8FAD565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="May_29_Panthers_Tricounty" sheetId="1" r:id="rId1"/>
+    <sheet name="May_29_Smashers_Wildfiya" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="124">
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Panthers</t>
+  </si>
+  <si>
+    <t>vs.</t>
+  </si>
+  <si>
+    <t>Tricounty</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Sun 29 May 2022</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Sir John A Macdonald Public School, 250 Centre St. Brampton</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Home Inning</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>How Out</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Anand Persaud (VC)</t>
+  </si>
+  <si>
+    <t>Did not Bat</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Arvin Persaud (SR)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Run Out</t>
+  </si>
+  <si>
+    <t>Dinesh Ajodha</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Hemraj Persaud (C)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Krishna Persaud</t>
+  </si>
+  <si>
+    <t>Not Out</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Rajesh Seelall</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Caught</t>
+  </si>
+  <si>
+    <t>Ravi Ramlall</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Rishi Sanchara</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Ryan Singh (N)</t>
+  </si>
+  <si>
+    <t>Sanjay Ramsaywack</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Bowled</t>
+  </si>
+  <si>
+    <t>Surendra Rai Singh</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Extras
+31
+</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Total
+215
+for 4 Wkts
+19
+173
+8
+</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>for 4 Wkts</t>
+  </si>
+  <si>
+    <t>Visitor Inning</t>
+  </si>
+  <si>
+    <t>Afraz Mohamed</t>
+  </si>
+  <si>
+    <t>Ahmad Khan</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Aktar Ali</t>
+  </si>
+  <si>
+    <t>Alejandro Khan</t>
+  </si>
+  <si>
+    <t>Imran Ali (SR) (VC)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Reyeed Ferose</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Riyad Ali</t>
+  </si>
+  <si>
+    <t>Saeed Khan</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Shazar Mohamed (Captain)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Shazim Ibrahim</t>
+  </si>
+  <si>
+    <t>Zafrula Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Extras
+23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Total
+173
+for 8 Wkts
+20
+215
+2
+</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>for 8 Wkts</t>
+  </si>
+  <si>
+    <t>Smashers</t>
+  </si>
+  <si>
+    <t>Wildfiya</t>
+  </si>
+  <si>
+    <t>Brookview Middle School, 4505 Jane St. North York</t>
+  </si>
+  <si>
+    <t>Balchan Harripersaud</t>
+  </si>
+  <si>
+    <t>Dinesh Ramkissoon</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Harinarine Persaud (VC)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Hendrick Harrilall</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Kerwin Ganouri</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Parmanand Singh</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Rajesh Singh</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Rohan Madramottoo</t>
+  </si>
+  <si>
+    <t>Shivnarine George</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Vinod Diadatt</t>
+  </si>
+  <si>
+    <t>Yuvi Sandhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Extras
+13
+</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Total
+155
+for 6 Wkts
+20
+131
+5
+</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>for 6 Wkts</t>
+  </si>
+  <si>
+    <t>Eoin Pollard</t>
+  </si>
+  <si>
+    <t>Mahendra Nauth (Reds)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Mark Moosaie</t>
+  </si>
+  <si>
+    <t>Neilon Williams</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Rajendra (Vicky) Nauth</t>
+  </si>
+  <si>
+    <t>Ravi Bhim (JR)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Raymond Pollard</t>
+  </si>
+  <si>
+    <t>Roy Lochan</t>
+  </si>
+  <si>
+    <t>Shruti Singh (VC)</t>
+  </si>
+  <si>
+    <t>Vivian Pollard</t>
+  </si>
+  <si>
+    <t>Yash Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Extras
+18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Total
+131
+for 6 Wkts
+20
+151
+5
+</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +466,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +474,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +795,1331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>